--- a/table_list.xlsx
+++ b/table_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F32AF-0B9A-4D55-9C34-E224CD21A43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC756304-DFA2-432E-9411-A64186553942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42390" yWindow="2120" windowWidth="33520" windowHeight="18220" xr2:uid="{59984B8A-8E93-49FA-96D6-2410C729DCBC}"/>
+    <workbookView xWindow="38880" yWindow="1150" windowWidth="21690" windowHeight="18220" xr2:uid="{59984B8A-8E93-49FA-96D6-2410C729DCBC}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
+    <sheet name="vendors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t>Tables</t>
   </si>
@@ -48,13 +49,205 @@
   </si>
   <si>
     <t>app</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>hair_color</t>
+  </si>
+  <si>
+    <t>albums</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string30</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>cheetah</t>
+  </si>
+  <si>
+    <t>tapir</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>mockingbird</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>porcupine</t>
+  </si>
+  <si>
+    <t>platypus</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>jeff</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>entity_type</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t>koala</t>
+  </si>
+  <si>
+    <t>franchise</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>household_size</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>political_affiliation</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>alligator</t>
+  </si>
+  <si>
+    <t>ferret</t>
+  </si>
+  <si>
+    <t>moose</t>
+  </si>
+  <si>
+    <t>panther</t>
+  </si>
+  <si>
+    <t>peacock</t>
+  </si>
+  <si>
+    <t>stork</t>
+  </si>
+  <si>
+    <t>swan</t>
+  </si>
+  <si>
+    <t>ferret_retailer</t>
+  </si>
+  <si>
+    <t>property_value</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>yearly_income</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>state_abbreviation</t>
+  </si>
+  <si>
+    <t>brand_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>street_address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
+    <t>polygon_wkt</t>
+  </si>
+  <si>
+    <t>string200</t>
+  </si>
+  <si>
+    <t>varchar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +255,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +292,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,32 +613,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E36DF0E-826A-42EE-8AD0-2F2DB67502A2}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBD2A15-F34E-4D59-857F-0AD45F0CC2C2}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
